--- a/data/hotels_by_city/Houston/Houston_shard_78.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_78.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56123-d1216745-Reviews-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Hotel-Search?langid=1033&amp;mctc=9&amp;chid=2e871fd5-10bc-43dd-a7e1-2d4689757674&amp;SC=2&amp;trv_mbl=M&amp;trv_bp=149.99&amp;MDPCID=ORBITZ-US.META.TRIPADVISOR.CORESEARCH-DESKTOP.HOTEL&amp;trv_curr=USD&amp;trv_tax=19.50&amp;trv_di=B&amp;MDPDTL=htl.2350214.1216745.56123.WzUjzAokKn8AAnJhZAEAAAC@.15373&amp;startDate=7/12/2018&amp;endDate=7/13/2018&amp;selected=2350214&amp;adults=2&amp;paandi=true</t>
   </si>
   <si>
@@ -139,6 +145,655 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r521222725-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>56123</t>
+  </si>
+  <si>
+    <t>1216745</t>
+  </si>
+  <si>
+    <t>521222725</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Better than average</t>
+  </si>
+  <si>
+    <t>We stayed at a couple of Candlewood suites on this business trip and this was the better of the two. The rooms were large and clean and the location was very good for the chemical sites and places to eat etc.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r447309939-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>447309939</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truly a home away from home </t>
+  </si>
+  <si>
+    <t>This is the 3rd stay for me at this hotel. I will for sure keep coming back. The rooms are always clean and comfortable with everything in good working condition. Many little extra items they have in the lobby so if you run out of anything, you can get for free in the lobby. Plus it is pet friendly MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>This is the 3rd stay for me at this hotel. I will for sure keep coming back. The rooms are always clean and comfortable with everything in good working condition. Many little extra items they have in the lobby so if you run out of anything, you can get for free in the lobby. Plus it is pet friendly More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r444768254-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>444768254</t>
+  </si>
+  <si>
+    <t>12/16/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Horrible. My room wasn't cleaned and promised and when spoke to clerk was told you have to wait for your next cleaning day but she would pass it to house keeping.  Itching was passed on. Glass on floor when I checked in. Some nice workers but the majority were downright rude and will be moving hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Manager at Candlewood Suites Lake Jackson, responded to this reviewResponded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2016</t>
+  </si>
+  <si>
+    <t>Horrible. My room wasn't cleaned and promised and when spoke to clerk was told you have to wait for your next cleaning day but she would pass it to house keeping.  Itching was passed on. Glass on floor when I checked in. Some nice workers but the majority were downright rude and will be moving hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r375184265-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>375184265</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Convenient but not exactly luxurious!</t>
+  </si>
+  <si>
+    <t>I guess this hotel does exactly what 'it says on the packet'.  It is clean and very convenient for all of the industry in Lake Jackson and surrounds.  The staff are great (thank you so much, Amber) and will help us much as possible.  No restaurant or bar though and only the most basic of breakfasts (from a vending machine).  There are a number of chain restaurants within easy driving distance (but you won't walk to them).  The gym is adequate and pool looked inviting.  I wouldn't go back but I wouldn't discourage anyone who just needs a comfortable place to rest their head in the area eitherMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Lake Jackson, responded to this reviewResponded June 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2016</t>
+  </si>
+  <si>
+    <t>I guess this hotel does exactly what 'it says on the packet'.  It is clean and very convenient for all of the industry in Lake Jackson and surrounds.  The staff are great (thank you so much, Amber) and will help us much as possible.  No restaurant or bar though and only the most basic of breakfasts (from a vending machine).  There are a number of chain restaurants within easy driving distance (but you won't walk to them).  The gym is adequate and pool looked inviting.  I wouldn't go back but I wouldn't discourage anyone who just needs a comfortable place to rest their head in the area eitherMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r370427769-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>370427769</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel Ever</t>
+  </si>
+  <si>
+    <t>Very clean hotel rooms.kitchen in the rooms so you save money by not having to eat out every night.The nicest people work there.Easy access of main highway.Best hotel stay I have had in Years.I will be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>CWSuitesLJ, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2016</t>
+  </si>
+  <si>
+    <t>Very clean hotel rooms.kitchen in the rooms so you save money by not having to eat out every night.The nicest people work there.Easy access of main highway.Best hotel stay I have had in Years.I will be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r366698776-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>366698776</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Ok place but I would not stay again</t>
+  </si>
+  <si>
+    <t>The place was ok if your looking for a place to hang out and smoke in the parking lot.  I stayed here for business and the place was clean and the desk staff was friendly.  There is no breakfast in the morning only the snack bar.  My main problem was this place allows dog that bark all the time and the people who hung out in the parking lot smoking all night.  I was on the first floor and their smoke was coming right in through my AC unit.  Not a bad place I just won't stay again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>CWSuitesLJ, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>The place was ok if your looking for a place to hang out and smoke in the parking lot.  I stayed here for business and the place was clean and the desk staff was friendly.  There is no breakfast in the morning only the snack bar.  My main problem was this place allows dog that bark all the time and the people who hung out in the parking lot smoking all night.  I was on the first floor and their smoke was coming right in through my AC unit.  Not a bad place I just won't stay again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r312363647-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>312363647</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>The usual accommodations at a higher price</t>
+  </si>
+  <si>
+    <t>We stayed at the Candlewood Suites in Lake Jackson Texas for 3 nights
+We were quite tired after our long journey so we settled in
+Our triple A rate for a double occupancy 2 double bed suite was $159.00 per night and with a 13% tax our cost for each night was $180.00 per night ( yikes)
+The hotel is right on the Highway 288 a very busy corridor
+A gas station and car wash next door and apartment complex on the other side of it
+The rooms have a 32 inch flat screen TV, a two burner stove, microwave and a dishwasher. There is a nice set up of dishes , utensils and pans in each room
+Plenty of outlets for your electronics and free Wifi. There is a laundry room on the premises next to the adequate gym equipment. It was especially surprising to see that laundry facilities were free just bring your soap. You can get some exercise while you wait for your  laundry. Very thoughtful. 
+The interior hotel room lighting is minimal as is the norm in this industry . The stove is on a timer in case you leave it on by mistake . Each room has a full size refrigerator/ freezer .
+There is no maintenance personnel present after daytime hours so if something goes wrong the solution may be changing rooms so don't settle in
+Bathrooms are nicely appointed , towels are plush...We stayed at the Candlewood Suites in Lake Jackson Texas for 3 nightsWe were quite tired after our long journey so we settled inOur triple A rate for a double occupancy 2 double bed suite was $159.00 per night and with a 13% tax our cost for each night was $180.00 per night ( yikes)The hotel is right on the Highway 288 a very busy corridorA gas station and car wash next door and apartment complex on the other side of itThe rooms have a 32 inch flat screen TV, a two burner stove, microwave and a dishwasher. There is a nice set up of dishes , utensils and pans in each roomPlenty of outlets for your electronics and free Wifi. There is a laundry room on the premises next to the adequate gym equipment. It was especially surprising to see that laundry facilities were free just bring your soap. You can get some exercise while you wait for your  laundry. Very thoughtful. The interior hotel room lighting is minimal as is the norm in this industry . The stove is on a timer in case you leave it on by mistake . Each room has a full size refrigerator/ freezer .There is no maintenance personnel present after daytime hours so if something goes wrong the solution may be changing rooms so don't settle inBathrooms are nicely appointed , towels are plush and bright. Everything seems to be well thought out for the traveler. Only thing missing is a nice view of some grass or something other than black top.In the lobby they offer free coffee, there is a lending locker in case you need a blender or wish to vacuum your own roomThey have a few food items and incidentals for sale as well Staff is friendly and helpfulParking is in front of the building with no valet serviceWe saw evidence of an on site pool but did not check it outPeople in wheelchairs will need to use careBe sure to bring an attendant because the bathrooms are very tricky and you will need helpThe beds and pillows were quite comfortable without too much wearThe bedding and sheets were just rightThe grocery store is about 5 miles away and you can refuel next doorThe closest restaurant is a Tokyo steakhouse that emitted a foul odorBest of luck and happy travelsMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Candlewood Suites in Lake Jackson Texas for 3 nights
+We were quite tired after our long journey so we settled in
+Our triple A rate for a double occupancy 2 double bed suite was $159.00 per night and with a 13% tax our cost for each night was $180.00 per night ( yikes)
+The hotel is right on the Highway 288 a very busy corridor
+A gas station and car wash next door and apartment complex on the other side of it
+The rooms have a 32 inch flat screen TV, a two burner stove, microwave and a dishwasher. There is a nice set up of dishes , utensils and pans in each room
+Plenty of outlets for your electronics and free Wifi. There is a laundry room on the premises next to the adequate gym equipment. It was especially surprising to see that laundry facilities were free just bring your soap. You can get some exercise while you wait for your  laundry. Very thoughtful. 
+The interior hotel room lighting is minimal as is the norm in this industry . The stove is on a timer in case you leave it on by mistake . Each room has a full size refrigerator/ freezer .
+There is no maintenance personnel present after daytime hours so if something goes wrong the solution may be changing rooms so don't settle in
+Bathrooms are nicely appointed , towels are plush...We stayed at the Candlewood Suites in Lake Jackson Texas for 3 nightsWe were quite tired after our long journey so we settled inOur triple A rate for a double occupancy 2 double bed suite was $159.00 per night and with a 13% tax our cost for each night was $180.00 per night ( yikes)The hotel is right on the Highway 288 a very busy corridorA gas station and car wash next door and apartment complex on the other side of itThe rooms have a 32 inch flat screen TV, a two burner stove, microwave and a dishwasher. There is a nice set up of dishes , utensils and pans in each roomPlenty of outlets for your electronics and free Wifi. There is a laundry room on the premises next to the adequate gym equipment. It was especially surprising to see that laundry facilities were free just bring your soap. You can get some exercise while you wait for your  laundry. Very thoughtful. The interior hotel room lighting is minimal as is the norm in this industry . The stove is on a timer in case you leave it on by mistake . Each room has a full size refrigerator/ freezer .There is no maintenance personnel present after daytime hours so if something goes wrong the solution may be changing rooms so don't settle inBathrooms are nicely appointed , towels are plush and bright. Everything seems to be well thought out for the traveler. Only thing missing is a nice view of some grass or something other than black top.In the lobby they offer free coffee, there is a lending locker in case you need a blender or wish to vacuum your own roomThey have a few food items and incidentals for sale as well Staff is friendly and helpfulParking is in front of the building with no valet serviceWe saw evidence of an on site pool but did not check it outPeople in wheelchairs will need to use careBe sure to bring an attendant because the bathrooms are very tricky and you will need helpThe beds and pillows were quite comfortable without too much wearThe bedding and sheets were just rightThe grocery store is about 5 miles away and you can refuel next doorThe closest restaurant is a Tokyo steakhouse that emitted a foul odorBest of luck and happy travelsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r247424606-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>247424606</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Best hotel in Lake Jackson, tx</t>
+  </si>
+  <si>
+    <t>Great front desk service.  Great location.  Close to everything around.  Great housekeeping. Being staying here already for 9 month.  Never had problems.  Like the free laundry service they have here.  Great lending locker too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r235542067-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>235542067</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Not what we expected from the IHG brand</t>
+  </si>
+  <si>
+    <t>First of all, I will say that the staff here is extremely courteous and friendly, a really super nice group of folks.  The location of the hotel is excellent and convenient to LJ restaurants, shopping and the beach and not directly across from the chemical plant as most are.  The exterior of the hotel is nice and fresh--newish appearance.  But when you walk into the lobby, it is dreary and non inviting.  I expected something more akin to Homewood Suites or Residence Inn, but this was more like what I would expect in a Motel 6.  Our room was over $100 a night.  There is NO breakfast offered, which was a shock.  The hallways are eerily similar to a hospital with low ceilings and narrow walkways and drab paint.  I was expecting a nice two room suite for the price, but we had was a mini studio and ended up bumping into each other in the sleep area where one side of the bed was right against the wall.  The furniture was the cheapest I've ever seen in any lodging.  Guess we have been spoiled by the fabulous Holiday Inn medical Center in Amarillo where we are frequent guests.  They are stingy with the towels--and they don't give you fresh ones everyday, nor do they clean the room.  I am surprised that other reviewers gave this place an excellent rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>CWSuitesLJ, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2014</t>
+  </si>
+  <si>
+    <t>First of all, I will say that the staff here is extremely courteous and friendly, a really super nice group of folks.  The location of the hotel is excellent and convenient to LJ restaurants, shopping and the beach and not directly across from the chemical plant as most are.  The exterior of the hotel is nice and fresh--newish appearance.  But when you walk into the lobby, it is dreary and non inviting.  I expected something more akin to Homewood Suites or Residence Inn, but this was more like what I would expect in a Motel 6.  Our room was over $100 a night.  There is NO breakfast offered, which was a shock.  The hallways are eerily similar to a hospital with low ceilings and narrow walkways and drab paint.  I was expecting a nice two room suite for the price, but we had was a mini studio and ended up bumping into each other in the sleep area where one side of the bed was right against the wall.  The furniture was the cheapest I've ever seen in any lodging.  Guess we have been spoiled by the fabulous Holiday Inn medical Center in Amarillo where we are frequent guests.  They are stingy with the towels--and they don't give you fresh ones everyday, nor do they clean the room.  I am surprised that other reviewers gave this place an excellent rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r212780508-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>212780508</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Nice Getaway</t>
+  </si>
+  <si>
+    <t>I visited with my partner this past weekend and we enjoyed our stay very much. The room was very clean and cozy and bed was very comfortable. The associates we came across were very friendly. I am a Director of Sales at another IHG property and I highly recommend this property if you are visiting the Lake Jackson/Clute area. It's also just a short drive down to Surfside Beach.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded July 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2014</t>
+  </si>
+  <si>
+    <t>I visited with my partner this past weekend and we enjoyed our stay very much. The room was very clean and cozy and bed was very comfortable. The associates we came across were very friendly. I am a Director of Sales at another IHG property and I highly recommend this property if you are visiting the Lake Jackson/Clute area. It's also just a short drive down to Surfside Beach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r210668942-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>210668942</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>First Time at a Candlewood, and the Last!!!</t>
+  </si>
+  <si>
+    <t>Ok, so everyone who reads our listings, know we sometimes travel with our Registered Service Dog! 
+First, when my wife got to the hotel, she was told the room would be ready in an hour; but as my wife was paying, the lady up front made her fill out a form about the dog (which we have done before) Then proceeded to tell my wife they would have to go together and inspect the room for prior damage, and inspect when she leaves for new damage...  So, they go inspect the room and my wife gets the room card...
+I GUESS THE EMPLOYEE JUST FORGOT THAT SHE TOLD MY WIFE TO COME BACK IN AN HOUR, BECAUSE SHE WAS HANDED THE CARD WITHIN 5 MINUTES. SHE WAS MORE CONCERNED ABOUT THE DOG THAN ANYTHING ELSE!
+SECOND, The employee asked why he was a Service Dog: Which according the American Disabilities Act, this question is HIGHLY ILLEGAL!
+Moving forward...upon check out... (NOTE THIS HOTEL DOES ALLOW PETS) the lady asked my wife, "Are you picking up your dogs poop, because someone isn't."
+WHY SINGLE OUT MY DOG? DID YOU ASK EVERY PERSON WITH A DOG THIS QUESTION? AND WHY WOULD AN EMPLOYEE EVEN ASK THAT QUESTION?
+TO ANSWER, YES...We always do... But I didn't understand why even ask???
+The place was clean, but that's about all I can say....
+WILL NOT EVER GO BACK! hard to believe this is an IGH...Ok, so everyone who reads our listings, know we sometimes travel with our Registered Service Dog! First, when my wife got to the hotel, she was told the room would be ready in an hour; but as my wife was paying, the lady up front made her fill out a form about the dog (which we have done before) Then proceeded to tell my wife they would have to go together and inspect the room for prior damage, and inspect when she leaves for new damage...  So, they go inspect the room and my wife gets the room card...I GUESS THE EMPLOYEE JUST FORGOT THAT SHE TOLD MY WIFE TO COME BACK IN AN HOUR, BECAUSE SHE WAS HANDED THE CARD WITHIN 5 MINUTES. SHE WAS MORE CONCERNED ABOUT THE DOG THAN ANYTHING ELSE!SECOND, The employee asked why he was a Service Dog: Which according the American Disabilities Act, this question is HIGHLY ILLEGAL!Moving forward...upon check out... (NOTE THIS HOTEL DOES ALLOW PETS) the lady asked my wife, "Are you picking up your dogs poop, because someone isn't."WHY SINGLE OUT MY DOG? DID YOU ASK EVERY PERSON WITH A DOG THIS QUESTION? AND WHY WOULD AN EMPLOYEE EVEN ASK THAT QUESTION?TO ANSWER, YES...We always do... But I didn't understand why even ask???The place was clean, but that's about all I can say....WILL NOT EVER GO BACK! hard to believe this is an IGH Property!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Ok, so everyone who reads our listings, know we sometimes travel with our Registered Service Dog! 
+First, when my wife got to the hotel, she was told the room would be ready in an hour; but as my wife was paying, the lady up front made her fill out a form about the dog (which we have done before) Then proceeded to tell my wife they would have to go together and inspect the room for prior damage, and inspect when she leaves for new damage...  So, they go inspect the room and my wife gets the room card...
+I GUESS THE EMPLOYEE JUST FORGOT THAT SHE TOLD MY WIFE TO COME BACK IN AN HOUR, BECAUSE SHE WAS HANDED THE CARD WITHIN 5 MINUTES. SHE WAS MORE CONCERNED ABOUT THE DOG THAN ANYTHING ELSE!
+SECOND, The employee asked why he was a Service Dog: Which according the American Disabilities Act, this question is HIGHLY ILLEGAL!
+Moving forward...upon check out... (NOTE THIS HOTEL DOES ALLOW PETS) the lady asked my wife, "Are you picking up your dogs poop, because someone isn't."
+WHY SINGLE OUT MY DOG? DID YOU ASK EVERY PERSON WITH A DOG THIS QUESTION? AND WHY WOULD AN EMPLOYEE EVEN ASK THAT QUESTION?
+TO ANSWER, YES...We always do... But I didn't understand why even ask???
+The place was clean, but that's about all I can say....
+WILL NOT EVER GO BACK! hard to believe this is an IGH...Ok, so everyone who reads our listings, know we sometimes travel with our Registered Service Dog! First, when my wife got to the hotel, she was told the room would be ready in an hour; but as my wife was paying, the lady up front made her fill out a form about the dog (which we have done before) Then proceeded to tell my wife they would have to go together and inspect the room for prior damage, and inspect when she leaves for new damage...  So, they go inspect the room and my wife gets the room card...I GUESS THE EMPLOYEE JUST FORGOT THAT SHE TOLD MY WIFE TO COME BACK IN AN HOUR, BECAUSE SHE WAS HANDED THE CARD WITHIN 5 MINUTES. SHE WAS MORE CONCERNED ABOUT THE DOG THAN ANYTHING ELSE!SECOND, The employee asked why he was a Service Dog: Which according the American Disabilities Act, this question is HIGHLY ILLEGAL!Moving forward...upon check out... (NOTE THIS HOTEL DOES ALLOW PETS) the lady asked my wife, "Are you picking up your dogs poop, because someone isn't."WHY SINGLE OUT MY DOG? DID YOU ASK EVERY PERSON WITH A DOG THIS QUESTION? AND WHY WOULD AN EMPLOYEE EVEN ASK THAT QUESTION?TO ANSWER, YES...We always do... But I didn't understand why even ask???The place was clean, but that's about all I can say....WILL NOT EVER GO BACK! hard to believe this is an IGH Property!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r202302973-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>202302973</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Perfect for a family visit</t>
+  </si>
+  <si>
+    <t>My husband and I stay here when we visit our daughter and her family in the area. The hotel always has been a convenient and reliable choice. The most recent visit met all expectations, and the staff members were very helpful and pleasant. Will stay there again when we visit the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded April 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stay here when we visit our daughter and her family in the area. The hotel always has been a convenient and reliable choice. The most recent visit met all expectations, and the staff members were very helpful and pleasant. Will stay there again when we visit the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r186069976-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>186069976</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Nice stay - No problems</t>
+  </si>
+  <si>
+    <t>I stayed at this Candlewood Suite for 2 weeks and had a great experience.  Being there for so long having the kitchenettes was very nice so you didn't have to go out for every meal.  The rooms are currently being remodeled (my room just got a new recliner) and there was a note on my fridge that they are going to be redoing the carpet in the next few weeks.  Having a free laundry facility was very nice too. The place is very quiet at night and the bed was comfortable.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r179634887-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>179634887</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>If you are in the area, this hotel is a great place to stay. Make sure that you make reservations in advance if staying during the week (lots of contract workers for the plants stay here). They were very accommodating for parking and the kitchenettes were a bonus. Not much around this hotel except a convenience store. But the rooms were clean and had lots of amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded October 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2013</t>
+  </si>
+  <si>
+    <t>If you are in the area, this hotel is a great place to stay. Make sure that you make reservations in advance if staying during the week (lots of contract workers for the plants stay here). They were very accommodating for parking and the kitchenettes were a bonus. Not much around this hotel except a convenience store. But the rooms were clean and had lots of amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r178033402-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>178033402</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here during a trip to visit family. The room was clean and a good size. It had a small kitchenette. The hotel was clean and had ample parking. We felt safe and comfortable during the stay. I would stay at this hotel again in the future when visiting family.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here during a trip to visit family. The room was clean and a good size. It had a small kitchenette. The hotel was clean and had ample parking. We felt safe and comfortable during the stay. I would stay at this hotel again in the future when visiting family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r155319997-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>155319997</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>Don't even think about staying somewhere else!!!</t>
+  </si>
+  <si>
+    <t>What can I say, except that this is a very nice hotel.  The rooms (especially the beds) are very comfortable.  My family and my wallet have very much appreciated the kitchenette feature of the rooms at Candlewood.  WiFi is available and we all took full advantage!  The hotel is conveniently located to local businesses and attractions.  The staff is extremely friendly and welcoming.  I was very impressed after my last stay when I mistakenly forgot my laptop in my room after checking out.  Before I had even realized that it was not with me and before I had gotten too far down the road, the manager called me to inform me that they had it safe and secure and that I could pick it up!  Now that's what I call service!  Thanks Candlewood!! You ROCK!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>What can I say, except that this is a very nice hotel.  The rooms (especially the beds) are very comfortable.  My family and my wallet have very much appreciated the kitchenette feature of the rooms at Candlewood.  WiFi is available and we all took full advantage!  The hotel is conveniently located to local businesses and attractions.  The staff is extremely friendly and welcoming.  I was very impressed after my last stay when I mistakenly forgot my laptop in my room after checking out.  Before I had even realized that it was not with me and before I had gotten too far down the road, the manager called me to inform me that they had it safe and secure and that I could pick it up!  Now that's what I call service!  Thanks Candlewood!! You ROCK!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r155011587-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>155011587</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Very comfortable, the staff went above and beyond to accommodate us. The manager was extremely helpful during the month we stayed while relocating to the area. Clean and the front desk staff responded immediately every time we needed something (crib, linens, toilette paper, different cleaning day and time, advice about the area). Would recommend this location for a short to long term stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Very comfortable, the staff went above and beyond to accommodate us. The manager was extremely helpful during the month we stayed while relocating to the area. Clean and the front desk staff responded immediately every time we needed something (crib, linens, toilette paper, different cleaning day and time, advice about the area). Would recommend this location for a short to long term stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r152948044-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>152948044</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Please allow us toilet paper</t>
+  </si>
+  <si>
+    <t>$130 a night. 2 nights. No breakfast. I was told when making reservations that a breakfast was included. When checking in I discovered breakfast was only fruit- 1 old apple.  Too much money not to include a breakfast. Rooms were very clean. They never serviced our room though. We were only allotted 1 roll of toilet paper. So we had to use sparingly. They also keep a count on the towels. In order to get a clean towel, you have to trade dirty towels. It's very odd. No hot tub either.  Not a pleasant stay. Would not stay again. For the price, there are lots of other hotels with in the area with better amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded February 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2013</t>
+  </si>
+  <si>
+    <t>$130 a night. 2 nights. No breakfast. I was told when making reservations that a breakfast was included. When checking in I discovered breakfast was only fruit- 1 old apple.  Too much money not to include a breakfast. Rooms were very clean. They never serviced our room though. We were only allotted 1 roll of toilet paper. So we had to use sparingly. They also keep a count on the towels. In order to get a clean towel, you have to trade dirty towels. It's very odd. No hot tub either.  Not a pleasant stay. Would not stay again. For the price, there are lots of other hotels with in the area with better amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r131519275-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>131519275</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Nice facility, inconsistent service</t>
+  </si>
+  <si>
+    <t>I stay here occasionally when I visit my daughter and her family. Very handy to have a kitchen. The only complaint I have is that the front desk service is unpredictable. Sometimes excellent, sometimes rude.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r130545241-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>130545241</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>whoa</t>
+  </si>
+  <si>
+    <t>i love candlewood. it has excellent quality and it also has fantastic room service. it has very good afordable prices.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r129363348-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>129363348</t>
+  </si>
+  <si>
+    <t>05/04/2012</t>
+  </si>
+  <si>
+    <t>Great concept, great hotel.</t>
+  </si>
+  <si>
+    <t>This was our first stay at Candlewood and it was wonderful.  The room was excellent and the staff was great.  We liked not having daily housekeeping service and the little store was stocked with all the items we needed.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r120957202-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>120957202</t>
+  </si>
+  <si>
+    <t>11/23/2011</t>
+  </si>
+  <si>
+    <t>Don't book through Priceline and expect a decent room</t>
+  </si>
+  <si>
+    <t>Booked a room and called to make sure I received a double (which has been the norm for years in dealing with Priceline deals).  When I called the hotel I was informed I had been booked in a single Queen SMOKING room and would be charged an additional $40 per night to make any change to that selection. Customer service is certainly a thing of the past at both companies. Don't expect much!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r119497981-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>119497981</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>Pretty Decent</t>
+  </si>
+  <si>
+    <t>After having a terrible stay about a month earlier at the quality inn just down the road in Clute, TX-we made sure to do a little more research on where we stayed this time around.  The hotel was clean, staff was friendly and the pool was nice.  No complaints at all.  Would stay here again if traveling to this area.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r115069362-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>115069362</t>
+  </si>
+  <si>
+    <t>07/05/2011</t>
+  </si>
+  <si>
+    <t>Better than expected, would stay there again!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pool much smaller than it looks on their website. Rooms are great but it said we would have a king suite with a queen sofa sleeper, it's a double sofa sleeper at best. Quite hotel easy to find quick trip to beach. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r99001582-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>99001582</t>
+  </si>
+  <si>
+    <t>03/05/2011</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>My husband stayed at this hotel for the second time this past week. After he arrived at the airport  (1 1/2 hours drive from the hotel) he relized he had left his jacket and car keys in the room. He called the hotel and informed them. They offered to send the jacket and keys to him. Both items arrived the next day.  This is just an example of the service they provide.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r76216472-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>76216472</t>
+  </si>
+  <si>
+    <t>08/21/2010</t>
+  </si>
+  <si>
+    <t>A great place to stay</t>
+  </si>
+  <si>
+    <t>I recently stayed in the Candlewood Suites in Lake Jackson from May through August 2010 on business.  The hotel staff to a person were all friendly and helpful.  My room was nice and they kept it very clean for me.  The hotel was quite and inviting.  They have a free laundry, a workout room, and a pool.  I will stay here again when I am back in the area.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r58374406-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>58374406</t>
+  </si>
+  <si>
+    <t>03/12/2010</t>
+  </si>
+  <si>
+    <t>Great accomodation for the Business Traveler</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for four days while on business in the area.  My stay was very pleasant.  The hotel is clean and quiet.  It is well appointed, each room has a full sized refrigerator and a kitchenette with a cook-top, microwave, sink and dishwasher.  The hotel has a pool and a large gym.  It is convenient to many restaurants and shopping.  the hotel staff is courteous and knowledgeable.  The only complaint I had was with the spotty internet support  - I was unable to use the wired internet at all (several in our party had the same complaint).  Fortunately the wireless service was usable (although not great).</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r34077794-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>34077794</t>
+  </si>
+  <si>
+    <t>07/06/2009</t>
+  </si>
+  <si>
+    <t>Very Nice Brand New Hotel!!</t>
+  </si>
+  <si>
+    <t>Excellent service and pet friendly for a low cost.Loved the movie rentals that came when you stayed Very nice and big rooms. Loved everything!!</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1187,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1219,1907 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>142</v>
+      </c>
+      <c r="O13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>143</v>
+      </c>
+      <c r="X13" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" t="s">
+        <v>150</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>133</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>213</v>
+      </c>
+      <c r="O23" t="s">
+        <v>133</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>236</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_78.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_78.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,108 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r611502061-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>56123</t>
+  </si>
+  <si>
+    <t>1216745</t>
+  </si>
+  <si>
+    <t>611502061</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Good long stay hotel</t>
+  </si>
+  <si>
+    <t>Very friendly and well run.  Clean room and good shower.  Easy WiFi sign on.  Front desk is very helpful.  We traveled with two dogs and had no hassles.  Room had a full size refrigerator, dish washer and a full set of dishes and pans.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r596450753-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>596450753</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Great, relaxing place to stay that is just a few minutes from the beach!</t>
+  </si>
+  <si>
+    <t>We took a quick trip to the beach at the last minute and found a room here at a considerably lower price than others that were on or closer to the beach. It was so nice! Very clean, up to date rooms with a neat little kitchen that has a full size fridge with an ice maker. The parking lot was very well lit all the way around the building. We had our dog with us, an extra one time charge of $75, they have a grassy area in the back for pets to relieve themselves. They had bags provided for clean up. It was very quiet here even with the highway and Bucky's right in front of and next to the hotel. There is a small store in the hotel and Bucky's across the parking lot for anything you might need. There is a good drive thru car wash at this Bucky's to wash the sand and salt off of your vehicle.Friendly staff at the front desk. BBQ pits close to the pool with a nice seating area to relax.We will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We took a quick trip to the beach at the last minute and found a room here at a considerably lower price than others that were on or closer to the beach. It was so nice! Very clean, up to date rooms with a neat little kitchen that has a full size fridge with an ice maker. The parking lot was very well lit all the way around the building. We had our dog with us, an extra one time charge of $75, they have a grassy area in the back for pets to relieve themselves. They had bags provided for clean up. It was very quiet here even with the highway and Bucky's right in front of and next to the hotel. There is a small store in the hotel and Bucky's across the parking lot for anything you might need. There is a good drive thru car wash at this Bucky's to wash the sand and salt off of your vehicle.Friendly staff at the front desk. BBQ pits close to the pool with a nice seating area to relax.We will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r610239104-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>610239104</t>
+  </si>
+  <si>
+    <t>08/25/2018</t>
+  </si>
+  <si>
+    <t>BUSINESS TRAVEL PLUS</t>
+  </si>
+  <si>
+    <t>This was a great find for business travel.  The hotel is easy access to the highway, next door to gas station, clean and quiet.  Ask for a room that does not face the highway.  I have stayed twice, and the room away from the highway was much quieter.  What I like is the set up for the room.  Full size refrigerator, stove, a few utensils, cookware.  The room has a good desk set up and a reclining chair.  The hotel is set up to make business travel easy. There is a pantry store, but it wasn’t a help for showing up late and not wanting to have to go out for dinner.  The room was clean, staff was helpful and check in and out was quick and easy.  Any time I’m headed to Freeport for business, this will be the stop point.  I did not use the pool area, but it looked nice.  Cost is reasonable for a short term trip, but too high for a long term stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a great find for business travel.  The hotel is easy access to the highway, next door to gas station, clean and quiet.  Ask for a room that does not face the highway.  I have stayed twice, and the room away from the highway was much quieter.  What I like is the set up for the room.  Full size refrigerator, stove, a few utensils, cookware.  The room has a good desk set up and a reclining chair.  The hotel is set up to make business travel easy. There is a pantry store, but it wasn’t a help for showing up late and not wanting to have to go out for dinner.  The room was clean, staff was helpful and check in and out was quick and easy.  Any time I’m headed to Freeport for business, this will be the stop point.  I did not use the pool area, but it looked nice.  Cost is reasonable for a short term trip, but too high for a long term stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r575824591-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>575824591</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Stayed here for the one night on business and the room was clean, all was just as it should be. The hotel was very convenient for being close to work and food. Friendly staff. I did not try any of the facilities.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Manager at Candlewood Suites Lake Jackson, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for the one night on business and the room was clean, all was just as it should be. The hotel was very convenient for being close to work and food. Friendly staff. I did not try any of the facilities.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r521222725-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
-    <t>56123</t>
-  </si>
-  <si>
-    <t>1216745</t>
-  </si>
-  <si>
     <t>521222725</t>
   </si>
   <si>
@@ -174,9 +264,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r447309939-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -231,6 +318,60 @@
     <t>Horrible. My room wasn't cleaned and promised and when spoke to clerk was told you have to wait for your next cleaning day but she would pass it to house keeping.  Itching was passed on. Glass on floor when I checked in. Some nice workers but the majority were downright rude and will be moving hotels.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r412780270-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>412780270</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work </t>
+  </si>
+  <si>
+    <t>Rooms clean nice pool area a buckies next door for things you may need to Finish your trip at night parking lot is well lit staff was great to rooms were nice beds are from not hard as rock not a lot of rowdy people in the rooms either easy on / off 288 also good places to eat 5-10 mins way MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>CWSuitesLJ, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Rooms clean nice pool area a buckies next door for things you may need to Finish your trip at night parking lot is well lit staff was great to rooms were nice beds are from not hard as rock not a lot of rowdy people in the rooms either easy on / off 288 also good places to eat 5-10 mins way More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r395413959-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>395413959</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Work Trip</t>
+  </si>
+  <si>
+    <t>The entire staff make you feel welcome. The hotel its self is very clean and well maintained. I will stay there again when I am in the area. I loved the room I stayed in, it was spacious and loved the perks of a full kitchenette so I could cook and not have to eat out all the time. The hotel was very quite and I loved the fact that it was pet friendly. My fur baby loved His stay as well. I highly recommend that if as anyone gets a chance to stay here they do.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>The entire staff make you feel welcome. The hotel its self is very clean and well maintained. I will stay there again when I am in the area. I loved the room I stayed in, it was spacious and loved the perks of a full kitchenette so I could cook and not have to eat out all the time. The hotel was very quite and I loved the fact that it was pet friendly. My fur baby loved His stay as well. I highly recommend that if as anyone gets a chance to stay here they do.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r375184265-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -310,6 +451,48 @@
   </si>
   <si>
     <t>The place was ok if your looking for a place to hang out and smoke in the parking lot.  I stayed here for business and the place was clean and the desk staff was friendly.  There is no breakfast in the morning only the snack bar.  My main problem was this place allows dog that bark all the time and the people who hung out in the parking lot smoking all night.  I was on the first floor and their smoke was coming right in through my AC unit.  Not a bad place I just won't stay again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r359139801-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>359139801</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Great Place Staff very friendly happy remembers your name</t>
+  </si>
+  <si>
+    <t>This place one of best in area  the staff friendly room always clean Marisa has allways gave good direction of places to to or how best to get around easy check in and out if i stay in this area this the first place i check for rooms</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r345471385-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>345471385</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Best hotel in Lake Jackson</t>
+  </si>
+  <si>
+    <t>The only reason I stayed here is because they still offer smoking rooms. It's one amazing room! So comfortable and super clean and spacious ! All the other chains are so proud of their 100% free non smoking well Candlewood Suites still has the smoking room option and deserved my business. The room didn't even smell like smoke when I walked in! Amazing ! Truly amazing hotel! 100% satisfied. I will definitely recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>CWSuitesLJ, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>The only reason I stayed here is because they still offer smoking rooms. It's one amazing room! So comfortable and super clean and spacious ! All the other chains are so proud of their 100% free non smoking well Candlewood Suites still has the smoking room option and deserved my business. The room didn't even smell like smoke when I walked in! Amazing ! Truly amazing hotel! 100% satisfied. I will definitely recommend this hotel. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r312363647-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
@@ -390,6 +573,54 @@
     <t>First of all, I will say that the staff here is extremely courteous and friendly, a really super nice group of folks.  The location of the hotel is excellent and convenient to LJ restaurants, shopping and the beach and not directly across from the chemical plant as most are.  The exterior of the hotel is nice and fresh--newish appearance.  But when you walk into the lobby, it is dreary and non inviting.  I expected something more akin to Homewood Suites or Residence Inn, but this was more like what I would expect in a Motel 6.  Our room was over $100 a night.  There is NO breakfast offered, which was a shock.  The hallways are eerily similar to a hospital with low ceilings and narrow walkways and drab paint.  I was expecting a nice two room suite for the price, but we had was a mini studio and ended up bumping into each other in the sleep area where one side of the bed was right against the wall.  The furniture was the cheapest I've ever seen in any lodging.  Guess we have been spoiled by the fabulous Holiday Inn medical Center in Amarillo where we are frequent guests.  They are stingy with the towels--and they don't give you fresh ones everyday, nor do they clean the room.  I am surprised that other reviewers gave this place an excellent rating.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r220109531-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>220109531</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Comfortable Business Traveler</t>
+  </si>
+  <si>
+    <t>Always stay here on business. Sometimes for months. Enjoy having the kitchen &amp; the free guest laundry. Comfortable rooms &amp; friendly staff. Easy access to highway.  Near shopping and eating establisments.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r218708851-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>218708851</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stay here when we visit family in the area. The hotel always has been a convenient and reliable choice. The most recent visit met all expectations, and the staff members were very helpful and pleasant. They sure did renovation that made look hotel really neat and clean. Rooms are clean and beds very comfortable. The breakfast was great with lot of options. This time didn't had any problem with Wifi which had been problem in past. Its just best place to stay with good price. Will stay there again when we visit the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stay here when we visit family in the area. The hotel always has been a convenient and reliable choice. The most recent visit met all expectations, and the staff members were very helpful and pleasant. They sure did renovation that made look hotel really neat and clean. Rooms are clean and beds very comfortable. The breakfast was great with lot of options. This time didn't had any problem with Wifi which had been problem in past. Its just best place to stay with good price. Will stay there again when we visit the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r212780508-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -406,9 +637,6 @@
   </si>
   <si>
     <t>June 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded July 2, 2014</t>
@@ -443,9 +671,6 @@
 WILL NOT EVER GO BACK! hard to believe this is an IGH...Ok, so everyone who reads our listings, know we sometimes travel with our Registered Service Dog! First, when my wife got to the hotel, she was told the room would be ready in an hour; but as my wife was paying, the lady up front made her fill out a form about the dog (which we have done before) Then proceeded to tell my wife they would have to go together and inspect the room for prior damage, and inspect when she leaves for new damage...  So, they go inspect the room and my wife gets the room card...I GUESS THE EMPLOYEE JUST FORGOT THAT SHE TOLD MY WIFE TO COME BACK IN AN HOUR, BECAUSE SHE WAS HANDED THE CARD WITHIN 5 MINUTES. SHE WAS MORE CONCERNED ABOUT THE DOG THAN ANYTHING ELSE!SECOND, The employee asked why he was a Service Dog: Which according the American Disabilities Act, this question is HIGHLY ILLEGAL!Moving forward...upon check out... (NOTE THIS HOTEL DOES ALLOW PETS) the lady asked my wife, "Are you picking up your dogs poop, because someone isn't."WHY SINGLE OUT MY DOG? DID YOU ASK EVERY PERSON WITH A DOG THIS QUESTION? AND WHY WOULD AN EMPLOYEE EVEN ASK THAT QUESTION?TO ANSWER, YES...We always do... But I didn't understand why even ask???The place was clean, but that's about all I can say....WILL NOT EVER GO BACK! hard to believe this is an IGH Property!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded June 18, 2014</t>
   </si>
   <si>
@@ -490,6 +715,57 @@
     <t>My husband and I stay here when we visit our daughter and her family in the area. The hotel always has been a convenient and reliable choice. The most recent visit met all expectations, and the staff members were very helpful and pleasant. Will stay there again when we visit the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r199973841-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>199973841</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>The Trifecta - large room, kitchette, clean</t>
+  </si>
+  <si>
+    <t>Had a nice 2 day stay here on the first week of April 2014.  Enjoyed having the kitchenette with dishwasher, stovetop, microwave, coffeemaker and a large refrigerator/freezer with filled ice cube trays.  Internet worked great and was fast when we were there.  Can't remember if we looked for an ice machine as there was ice in freezer which we also utilized to freeze paper cups of water overnight for large ice chunks for our cooler for the trip home.  One of the best beds I've ever slept on in a hotel.  Very quiet hotel inside and no road noise from nearby highway.  About 10-15 easy minute drive to the beach at Surfside where you can take your car on the beach (small fee which, I imagine, pays for the many portapotties lining the shore).  Wish they offered a free breakfast.  Not many places to eat nearby but there was a Bucky's gas station/convenience store that had a large selection of fresh (not pre-packaged) pastries.  Would stay here again and might even bring our large giant schnauzer (80 lbs.) with as they allow dogs up to 80 pounds.MoreShow less</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Had a nice 2 day stay here on the first week of April 2014.  Enjoyed having the kitchenette with dishwasher, stovetop, microwave, coffeemaker and a large refrigerator/freezer with filled ice cube trays.  Internet worked great and was fast when we were there.  Can't remember if we looked for an ice machine as there was ice in freezer which we also utilized to freeze paper cups of water overnight for large ice chunks for our cooler for the trip home.  One of the best beds I've ever slept on in a hotel.  Very quiet hotel inside and no road noise from nearby highway.  About 10-15 easy minute drive to the beach at Surfside where you can take your car on the beach (small fee which, I imagine, pays for the many portapotties lining the shore).  Wish they offered a free breakfast.  Not many places to eat nearby but there was a Bucky's gas station/convenience store that had a large selection of fresh (not pre-packaged) pastries.  Would stay here again and might even bring our large giant schnauzer (80 lbs.) with as they allow dogs up to 80 pounds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r192179712-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>192179712</t>
+  </si>
+  <si>
+    <t>01/26/2014</t>
+  </si>
+  <si>
+    <t>Slow internet service and NO ice machine.</t>
+  </si>
+  <si>
+    <t>I need very little when I check into a hotel.  I do not watch TV and I have to keep up with 2 different businesses on the road each week.I need decent internet service and an ice machine.  This place has very slow internet service and not even one ice machine.  I am victimized by the internet problen frequently, but is inexcusable to not have an ice machine available.  The gal at the front desk told me to turn the freezer on and I would have ice in 20 minutes.  I refuse to drink water with 'white ice.'  White ice is the nasty smelling and tasting result of freezing tap water.And I had to pay $130 per night for this!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2014</t>
+  </si>
+  <si>
+    <t>I need very little when I check into a hotel.  I do not watch TV and I have to keep up with 2 different businesses on the road each week.I need decent internet service and an ice machine.  This place has very slow internet service and not even one ice machine.  I am victimized by the internet problen frequently, but is inexcusable to not have an ice machine available.  The gal at the front desk told me to turn the freezer on and I would have ice in 20 minutes.  I refuse to drink water with 'white ice.'  White ice is the nasty smelling and tasting result of freezing tap water.And I had to pay $130 per night for this!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r186069976-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -553,6 +829,54 @@
     <t>My husband and I stayed here during a trip to visit family. The room was clean and a good size. It had a small kitchenette. The hotel was clean and had ample parking. We felt safe and comfortable during the stay. I would stay at this hotel again in the future when visiting family.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r166336551-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>166336551</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>More Than We Expected</t>
+  </si>
+  <si>
+    <t>The location was perfect for us to see the beach and the Space Center.  The hotel was very clean, quiet, and had everything we could need.  We also loved that they were pet friendly so we could bring our four legged family member.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>CWSLAKEJACKSON, Director of Sales at Candlewood Suites Lake Jackson, responded to this reviewResponded July 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2013</t>
+  </si>
+  <si>
+    <t>The location was perfect for us to see the beach and the Space Center.  The hotel was very clean, quiet, and had everything we could need.  We also loved that they were pet friendly so we could bring our four legged family member.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r163473544-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>163473544</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>Perfect....Location, Room &amp; Stay!</t>
+  </si>
+  <si>
+    <t>This was the perfect place to stay!  We came to Lake Jackson for a wedding and stayed 3 nights.  The room was absolutely beautiful!  LOTS of space and very clean!  Right when we walked in we smelled a clean room.  Even though all we could book was one room, our son had a very comfortable sleep on the couch that pulls out as a bed.  All fresh linens for the couch bed were in the closet. (2 large closets all together.) The main bedroom was spacious: desk, 4 nice pillows, larger mirror, and tv.  The bathroom was huge too!  No cracks, mold, or bugs!  Just perfect!  The only thing that I would change, which is probably a suggestion to the company rather than the hotel in Lake Jackson, is to enlarge the Candlewood Cupboard (items provided for a price) to include a free hot breakfast.  It didn't bother us though as we knew that there was no breakfast when we reserved the hotel and we used the great, fully loaded kitchen (with utensils, dinnerware, pots &amp; pans, full sized refrigerator and dishwasher) to meet our needs for breakfast.  Just make sure you come prepared with the food, lol!  Great Exercise room with full laundry room as well.  Machines all new and working great!  Also, the hotel is only 10-15 minutes away from the beach and 6 minutes away from SHOPPING!  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This was the perfect place to stay!  We came to Lake Jackson for a wedding and stayed 3 nights.  The room was absolutely beautiful!  LOTS of space and very clean!  Right when we walked in we smelled a clean room.  Even though all we could book was one room, our son had a very comfortable sleep on the couch that pulls out as a bed.  All fresh linens for the couch bed were in the closet. (2 large closets all together.) The main bedroom was spacious: desk, 4 nice pillows, larger mirror, and tv.  The bathroom was huge too!  No cracks, mold, or bugs!  Just perfect!  The only thing that I would change, which is probably a suggestion to the company rather than the hotel in Lake Jackson, is to enlarge the Candlewood Cupboard (items provided for a price) to include a free hot breakfast.  It didn't bother us though as we knew that there was no breakfast when we reserved the hotel and we used the great, fully loaded kitchen (with utensils, dinnerware, pots &amp; pans, full sized refrigerator and dishwasher) to meet our needs for breakfast.  Just make sure you come prepared with the food, lol!  Great Exercise room with full laundry room as well.  Machines all new and working great!  Also, the hotel is only 10-15 minutes away from the beach and 6 minutes away from SHOPPING!  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r155319997-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -622,6 +946,39 @@
     <t>$130 a night. 2 nights. No breakfast. I was told when making reservations that a breakfast was included. When checking in I discovered breakfast was only fruit- 1 old apple.  Too much money not to include a breakfast. Rooms were very clean. They never serviced our room though. We were only allotted 1 roll of toilet paper. So we had to use sparingly. They also keep a count on the towels. In order to get a clean towel, you have to trade dirty towels. It's very odd. No hot tub either.  Not a pleasant stay. Would not stay again. For the price, there are lots of other hotels with in the area with better amenities.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r135337593-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>135337593</t>
+  </si>
+  <si>
+    <t>07/25/2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Myself, my wife and my daughter stayed here for a weekend. The hotel was very clean and the staff were exceptional on our arrival. My wife called ahead to ask for a crib in our room. The clerk told us it may or not be in there yet and call if not, it wasnt, so we called and within minutes it was there. The one bedroom suite was superb, fridge/freezer, electric stove top and microwave. Moved the furniture a little and there was plenty of room for my daughter to play. The pool was a good size to play around in but not good if you actually want to swim, but perfect for our needs. The only let down was the AC was so loud and cycled way to often to get a great night sleep. Overall it was a great place to stay and we are looking forward to going back there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Myself, my wife and my daughter stayed here for a weekend. The hotel was very clean and the staff were exceptional on our arrival. My wife called ahead to ask for a crib in our room. The clerk told us it may or not be in there yet and call if not, it wasnt, so we called and within minutes it was there. The one bedroom suite was superb, fridge/freezer, electric stove top and microwave. Moved the furniture a little and there was plenty of room for my daughter to play. The pool was a good size to play around in but not good if you actually want to swim, but perfect for our needs. The only let down was the AC was so loud and cycled way to often to get a great night sleep. Overall it was a great place to stay and we are looking forward to going back there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r133108543-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>133108543</t>
+  </si>
+  <si>
+    <t>06/30/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, available but reservations on line requires advance payment with no cancellation.</t>
+  </si>
+  <si>
+    <t>Not being able to cancel when travel plans need to be changed is expense when cancellation is not allowed if you made reservations on line.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r131519275-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -676,6 +1033,39 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r125616943-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>125616943</t>
+  </si>
+  <si>
+    <t>03/04/2012</t>
+  </si>
+  <si>
+    <t>Always a pleasurable stay with the Candlewood!!</t>
+  </si>
+  <si>
+    <t>Stayed here for a one night stay, little pricey, But sometimes you get what you pay for. We arrived to a very clean, huge, king suite with wonderful amenities. Staff very friendly and quick service both checking in and checking out! Thank you Candlewood, always a pleasurable stay!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r123155771-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>123155771</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Surprise for the area</t>
+  </si>
+  <si>
+    <t>Grew up in Lake Jackson area and hotels typically are older and a little run down in my opinion.  The Candlewood was very clean, and appeared like a small apartment with full refrigerator, two burner stove top, very comfortable king bed that you do not roll to the middle, a/c that doesn't cycle on and off and wake you up, nice large work desk/table, good wifi, granite surfaces, and located right next door to a Buccee's (hometown grocery/gas station) that has a great breakfast burrito!Would definitely return.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r120957202-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -727,6 +1117,42 @@
     <t xml:space="preserve">Pool much smaller than it looks on their website. Rooms are great but it said we would have a king suite with a queen sofa sleeper, it's a double sofa sleeper at best. Quite hotel easy to find quick trip to beach. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r115056677-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>115056677</t>
+  </si>
+  <si>
+    <t>Excellent!  Hands down a Great Hotel!</t>
+  </si>
+  <si>
+    <t>First time in Lake Jackson and after going around town I was very glad that I stayed at this hotel.  The staff was very friendly since my arrival, they had everything ready for me to check in and settle in. The whole hotel and unit hotel looked very nice, the building is either newly constructed, or they went though some great remodeling.  The shower and restroom was spacious and very very clean!  and so was the bed room and 'living/kitchen' area.Since it is a suite, housekeeping is only done a few times a week, which is not bad if you are considerate and don't expect to have someone clean after you everyday.  There are plenty of towels for in between housekeeping visits, and if more are needed a quickly ring or visit to the front desk would get you some more.  Also free internet connection had great service and coverage (wi-fi)The Pool is open until ten and it looked very good (that's all I can say since I didn't go in)I would definitely recommend this hotel to anyone visiting Lake Jackson or the vicinities area.Stay was June 27-29, 2011MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>First time in Lake Jackson and after going around town I was very glad that I stayed at this hotel.  The staff was very friendly since my arrival, they had everything ready for me to check in and settle in. The whole hotel and unit hotel looked very nice, the building is either newly constructed, or they went though some great remodeling.  The shower and restroom was spacious and very very clean!  and so was the bed room and 'living/kitchen' area.Since it is a suite, housekeeping is only done a few times a week, which is not bad if you are considerate and don't expect to have someone clean after you everyday.  There are plenty of towels for in between housekeeping visits, and if more are needed a quickly ring or visit to the front desk would get you some more.  Also free internet connection had great service and coverage (wi-fi)The Pool is open until ten and it looked very good (that's all I can say since I didn't go in)I would definitely recommend this hotel to anyone visiting Lake Jackson or the vicinities area.Stay was June 27-29, 2011More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r104826800-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>104826800</t>
+  </si>
+  <si>
+    <t>04/20/2011</t>
+  </si>
+  <si>
+    <t>It was a nice stay</t>
+  </si>
+  <si>
+    <t>It is a very nice and well kept hotel.  Only stayed for one night so the amenities of the full kitchen was not used and then missed that there was not a breakfast served in the lobby as in other hotels.   It was very comfortable though and the staff was very pleasant.  The hotel was spotless.  Will stay here again and would recommend to others.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r99001582-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -779,6 +1205,39 @@
   </si>
   <si>
     <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r54699164-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>54699164</t>
+  </si>
+  <si>
+    <t>01/29/2010</t>
+  </si>
+  <si>
+    <t>I cannot speak highly enough of this hotel and its staff. I recently had an extended business stay there and had to arrange lodging for over 25 crew, checking in/out at different times. The hotel staff could not have been more friendly, professional, and above all, competent, in dealing with our large group. From experience, the same cannot be said for many other hotels in the area. Rooms were in great shape, and quiet, and the kitchenettes were fairly well supplied. Pool, hot tub, gym, and free washer/dryer were all icing on the cake. This will absolutely be my first choice for any future trips to the area.</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r36885912-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>36885912</t>
+  </si>
+  <si>
+    <t>08/06/2009</t>
+  </si>
+  <si>
+    <t>The BEST Hotel</t>
+  </si>
+  <si>
+    <t>We had a really GREAT time at the hotel. It has an awesome pool and hot tub, with free guest laundry, work out center, and even a little store!!!  We even cooked out on the grill and ate under the gazebo! My family loved it. The rooms are very nice, clean, very clean. The staff is very friendly. They also have movies they let you check out for free. If your going on bussiness or just for fun this is a VERY VERY nice place for you or you family.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d1216745-r34077794-Candlewood_Suites_Lake_Jackson-Lake_Jackson_Texas.html</t>
@@ -1328,7 +1787,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1339,14 +1798,12 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1408,14 +1865,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
         <v>60</v>
-      </c>
-      <c r="X3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1431,7 +1884,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1440,22 +1893,26 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1465,14 +1922,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1488,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1497,47 +1950,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1553,7 +2002,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1562,49 +2011,45 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
       </c>
       <c r="O6" t="s">
         <v>52</v>
       </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" t="s">
-        <v>87</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1620,7 +2065,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1629,25 +2074,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1659,13 +2104,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -1681,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1690,26 +2135,22 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -1719,10 +2160,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" t="s">
+        <v>98</v>
+      </c>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1738,7 +2183,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1747,43 +2192,41 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>105</v>
       </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
       <c r="Y9" t="s">
         <v>108</v>
       </c>
@@ -1822,7 +2265,7 @@
         <v>113</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
         <v>114</v>
@@ -1830,18 +2273,12 @@
       <c r="O10" t="s">
         <v>52</v>
       </c>
-      <c r="P10" t="n">
-        <v>1</v>
-      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
@@ -1889,41 +2326,35 @@
         <v>122</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
         <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
         <v>125</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>126</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -1939,7 +2370,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1948,53 +2379,49 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
         <v>129</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>130</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>131</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>132</v>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
       <c r="O12" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="n">
-        <v>2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
         <v>134</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>135</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -2010,7 +2437,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2019,53 +2446,43 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
         <v>138</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>139</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>140</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>141</v>
       </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>142</v>
-      </c>
       <c r="O13" t="s">
-        <v>133</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
         <v>143</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>144</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2081,7 +2498,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2090,47 +2507,43 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
         <v>147</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>148</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>149</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>150</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>151</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
       </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
         <v>4</v>
       </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -2146,7 +2559,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2155,49 +2568,43 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
         <v>153</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>154</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>155</v>
       </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
         <v>157</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>158</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -2213,7 +2620,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2222,53 +2629,39 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
         <v>161</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>162</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>163</v>
       </c>
-      <c r="L16" t="s">
-        <v>164</v>
-      </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>3</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>157</v>
-      </c>
-      <c r="X16" t="s">
-        <v>158</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -2284,7 +2677,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2293,16 +2686,16 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
         <v>168</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>169</v>
-      </c>
-      <c r="K17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L17" t="s">
-        <v>171</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -2328,14 +2721,10 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>172</v>
-      </c>
-      <c r="X17" t="s">
-        <v>173</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18">
@@ -2351,7 +2740,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2360,53 +2749,49 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -2422,7 +2807,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2431,49 +2816,45 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
         <v>183</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>184</v>
       </c>
-      <c r="K19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L19" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
       <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>2</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>187</v>
-      </c>
-      <c r="X19" t="s">
-        <v>188</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
@@ -2489,7 +2870,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2498,47 +2879,47 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
         <v>191</v>
       </c>
-      <c r="J20" t="s">
-        <v>192</v>
-      </c>
-      <c r="K20" t="s">
-        <v>193</v>
-      </c>
-      <c r="L20" t="s">
-        <v>194</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>195</v>
-      </c>
-      <c r="O20" t="s">
-        <v>133</v>
-      </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>192</v>
+      </c>
+      <c r="X20" t="s">
+        <v>193</v>
+      </c>
       <c r="Y20" t="s">
         <v>194</v>
       </c>
@@ -2556,7 +2937,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2565,25 +2946,25 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
         <v>197</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>198</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>199</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>200</v>
       </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>201</v>
-      </c>
       <c r="O21" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2604,10 +2985,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" t="s">
+        <v>202</v>
+      </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -2623,7 +3008,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2632,49 +3017,53 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>209</v>
+      </c>
+      <c r="X22" t="s">
+        <v>210</v>
+      </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
@@ -2690,7 +3079,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2699,43 +3088,53 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -2751,7 +3150,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2760,49 +3159,53 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>217</v>
       </c>
-      <c r="L24" t="s">
-        <v>218</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="s">
-        <v>219</v>
-      </c>
       <c r="O24" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" t="s">
+        <v>227</v>
+      </c>
       <c r="Y24" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -2818,7 +3221,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2827,45 +3230,53 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="J25" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
       <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
         <v>3</v>
       </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>235</v>
+      </c>
+      <c r="X25" t="s">
+        <v>236</v>
+      </c>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26">
@@ -2881,7 +3292,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2890,22 +3301,22 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s">
         <v>52</v>
@@ -2914,25 +3325,23 @@
         <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
@@ -2948,7 +3357,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2957,49 +3366,49 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>236</v>
-      </c>
-      <c r="O27" t="s">
-        <v>52</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
         <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
@@ -3015,7 +3424,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3024,39 +3433,53 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
       <c r="Y28" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
@@ -3072,7 +3495,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3081,22 +3504,26 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>191</v>
+      </c>
       <c r="P29" t="n">
         <v>5</v>
       </c>
@@ -3104,7 +3531,7 @@
         <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3116,10 +3543,1456 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>266</v>
+      </c>
       <c r="Y29" t="s">
-        <v>247</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>265</v>
+      </c>
+      <c r="X30" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J31" t="s">
+        <v>277</v>
+      </c>
+      <c r="K31" t="s">
+        <v>278</v>
+      </c>
+      <c r="L31" t="s">
+        <v>279</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>280</v>
+      </c>
+      <c r="X31" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s">
+        <v>191</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>280</v>
+      </c>
+      <c r="X32" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>295</v>
+      </c>
+      <c r="X33" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" t="s">
+        <v>311</v>
+      </c>
+      <c r="K36" t="s">
+        <v>312</v>
+      </c>
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>314</v>
+      </c>
+      <c r="O36" t="s">
+        <v>191</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>316</v>
+      </c>
+      <c r="J37" t="s">
+        <v>317</v>
+      </c>
+      <c r="K37" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>320</v>
+      </c>
+      <c r="O37" t="s">
+        <v>191</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s">
+        <v>191</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>328</v>
+      </c>
+      <c r="J39" t="s">
+        <v>329</v>
+      </c>
+      <c r="K39" t="s">
+        <v>330</v>
+      </c>
+      <c r="L39" t="s">
+        <v>331</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>337</v>
+      </c>
+      <c r="O40" t="s">
+        <v>191</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
+        <v>342</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>343</v>
+      </c>
+      <c r="O41" t="s">
+        <v>191</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>345</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>347</v>
+      </c>
+      <c r="L42" t="s">
+        <v>348</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>349</v>
+      </c>
+      <c r="O42" t="s">
+        <v>191</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>351</v>
+      </c>
+      <c r="J43" t="s">
+        <v>352</v>
+      </c>
+      <c r="K43" t="s">
+        <v>353</v>
+      </c>
+      <c r="L43" t="s">
+        <v>354</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>357</v>
+      </c>
+      <c r="L44" t="s">
+        <v>358</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>359</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>361</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" t="s">
+        <v>364</v>
+      </c>
+      <c r="L45" t="s">
+        <v>365</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>366</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>368</v>
+      </c>
+      <c r="J46" t="s">
+        <v>369</v>
+      </c>
+      <c r="K46" t="s">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s">
+        <v>371</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>372</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>374</v>
+      </c>
+      <c r="J47" t="s">
+        <v>375</v>
+      </c>
+      <c r="K47" t="s">
+        <v>376</v>
+      </c>
+      <c r="L47" t="s">
+        <v>377</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>378</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>380</v>
+      </c>
+      <c r="J48" t="s">
+        <v>381</v>
+      </c>
+      <c r="K48" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
+        <v>383</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>384</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>385</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>386</v>
+      </c>
+      <c r="J49" t="s">
+        <v>387</v>
+      </c>
+      <c r="K49" t="s">
+        <v>154</v>
+      </c>
+      <c r="L49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>389</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>390</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>391</v>
+      </c>
+      <c r="J50" t="s">
+        <v>392</v>
+      </c>
+      <c r="K50" t="s">
+        <v>393</v>
+      </c>
+      <c r="L50" t="s">
+        <v>394</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>395</v>
+      </c>
+      <c r="O50" t="s">
+        <v>191</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58625</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>396</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>397</v>
+      </c>
+      <c r="J51" t="s">
+        <v>398</v>
+      </c>
+      <c r="K51" t="s">
+        <v>399</v>
+      </c>
+      <c r="L51" t="s">
+        <v>400</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
